--- a/data/trans_orig/P70C1_2023-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P70C1_2023-Dificultad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>33393</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>22587</v>
+        <v>22039</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>49857</v>
+        <v>48637</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1902143017702673</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1286611775195146</v>
+        <v>0.1255400771100329</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2839954939863238</v>
+        <v>0.2770461479529074</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>33</v>
@@ -762,19 +762,19 @@
         <v>30213</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>20710</v>
+        <v>20169</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>42596</v>
+        <v>42508</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1761724926063142</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1207616831843069</v>
+        <v>0.1176049725697451</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2483760802278558</v>
+        <v>0.2478618115235122</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>57</v>
@@ -783,19 +783,19 @@
         <v>63606</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>47290</v>
+        <v>47716</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>83002</v>
+        <v>83717</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1832754867509486</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1362620287151377</v>
+        <v>0.1374880662476974</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2391615886499366</v>
+        <v>0.2412232264484929</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>19718</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>11168</v>
+        <v>11655</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>30440</v>
+        <v>31733</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1123170091706395</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0636169108094837</v>
+        <v>0.06639209969604633</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1733910256892299</v>
+        <v>0.1807586337294876</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>24</v>
@@ -833,19 +833,19 @@
         <v>16679</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>11047</v>
+        <v>11255</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>24363</v>
+        <v>25849</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.09725447344015235</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.06441798057999358</v>
+        <v>0.06562971853518673</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1420628939902752</v>
+        <v>0.1507246219075795</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>40</v>
@@ -854,19 +854,19 @@
         <v>36397</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>26665</v>
+        <v>26784</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>49388</v>
+        <v>51783</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1048737981188874</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.07683290183626347</v>
+        <v>0.07717576798245437</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1423080342947871</v>
+        <v>0.1492087671846529</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>26355</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>16974</v>
+        <v>16503</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>38396</v>
+        <v>36371</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1501236163031895</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.09668853253507978</v>
+        <v>0.09400421391765496</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2187148406199588</v>
+        <v>0.2071776255223218</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>20</v>
@@ -904,19 +904,19 @@
         <v>15963</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>9884</v>
+        <v>9915</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>24225</v>
+        <v>24150</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.09308003672300587</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.05763378756169696</v>
+        <v>0.05781593000114275</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1412536356760045</v>
+        <v>0.1408166958098652</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>43</v>
@@ -925,19 +925,19 @@
         <v>42318</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>30221</v>
+        <v>31245</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>55193</v>
+        <v>56351</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.121935307936004</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.08708016963886388</v>
+        <v>0.09002819166583674</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.159032419972312</v>
+        <v>0.1623688288456213</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>42401</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>30439</v>
+        <v>28295</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>55946</v>
+        <v>55728</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.2415234861568241</v>
+        <v>0.2415234861568242</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1733860276893337</v>
+        <v>0.1611738707202492</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3186811035788538</v>
+        <v>0.3174378919823187</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>39</v>
@@ -975,19 +975,19 @@
         <v>32251</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>23225</v>
+        <v>23234</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>43105</v>
+        <v>42969</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.1880573394269857</v>
+        <v>0.1880573394269856</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1354258122369663</v>
+        <v>0.1354795524629224</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2513464406319137</v>
+        <v>0.2505553069554538</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>74</v>
@@ -996,19 +996,19 @@
         <v>74652</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>59691</v>
+        <v>60586</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>91210</v>
+        <v>92842</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2151029802503289</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1719934979201307</v>
+        <v>0.1745734309551533</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2628136392362165</v>
+        <v>0.2675163827165548</v>
       </c>
     </row>
     <row r="8">
@@ -1025,19 +1025,19 @@
         <v>26624</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>18068</v>
+        <v>18464</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>39704</v>
+        <v>38070</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1516566677859245</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1029186080160733</v>
+        <v>0.1051773433712457</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2261603823827084</v>
+        <v>0.2168564014829492</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>55</v>
@@ -1046,19 +1046,19 @@
         <v>46569</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>36035</v>
+        <v>36489</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>58225</v>
+        <v>59000</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2715427285827263</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2101216302278375</v>
+        <v>0.212767713404379</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.339508274716357</v>
+        <v>0.3440320276844772</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>78</v>
@@ -1067,19 +1067,19 @@
         <v>73193</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>59297</v>
+        <v>59138</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>88521</v>
+        <v>88545</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2108988344861602</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1708588197634809</v>
+        <v>0.1704001546395966</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2550636662227593</v>
+        <v>0.2551330885372683</v>
       </c>
     </row>
     <row r="9">
@@ -1096,19 +1096,19 @@
         <v>27064</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>17725</v>
+        <v>17389</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>40379</v>
+        <v>39668</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1541649188131549</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1009653485188877</v>
+        <v>0.09905026032020268</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2300092056175506</v>
+        <v>0.2259574963072239</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>38</v>
@@ -1117,19 +1117,19 @@
         <v>29822</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>21740</v>
+        <v>21050</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>39894</v>
+        <v>39920</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1738929292208156</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1267648325771979</v>
+        <v>0.1227416505130603</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2326218747877263</v>
+        <v>0.2327734999114798</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>60</v>
@@ -1138,19 +1138,19 @@
         <v>56887</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>43507</v>
+        <v>43867</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>73637</v>
+        <v>72792</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1639135924576709</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1253618109223767</v>
+        <v>0.1263977067663767</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2121784072957337</v>
+        <v>0.2097442349699684</v>
       </c>
     </row>
     <row r="10">
@@ -1242,19 +1242,19 @@
         <v>99066</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>80306</v>
+        <v>79462</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>121425</v>
+        <v>121496</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1953731628768679</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1583754119806032</v>
+        <v>0.1567096588346333</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.239467567094788</v>
+        <v>0.2396075263920261</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>84</v>
@@ -1263,19 +1263,19 @@
         <v>63424</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>50236</v>
+        <v>50048</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>77481</v>
+        <v>76947</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1760083884629375</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1394098741362475</v>
+        <v>0.1388880445092829</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2150164595717955</v>
+        <v>0.2135337388019181</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>162</v>
@@ -1284,19 +1284,19 @@
         <v>162491</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>137796</v>
+        <v>138942</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>187997</v>
+        <v>188796</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1873284486406185</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1588594073040361</v>
+        <v>0.1601797151173028</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2167339960179261</v>
+        <v>0.2176547478987432</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>57658</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>41419</v>
+        <v>44207</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>73628</v>
+        <v>78873</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1137090806688279</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.08168402782521691</v>
+        <v>0.08718271009804079</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1452057330268634</v>
+        <v>0.1555485350229694</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>52</v>
@@ -1334,19 +1334,19 @@
         <v>39991</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>30972</v>
+        <v>29712</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>52319</v>
+        <v>52230</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1109790152020126</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.08594899317706213</v>
+        <v>0.08245476824636308</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1451884320115202</v>
+        <v>0.1449440891377194</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>104</v>
@@ -1355,19 +1355,19 @@
         <v>97649</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>78099</v>
+        <v>79279</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>116085</v>
+        <v>119474</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1125749287258555</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.09003653650252919</v>
+        <v>0.09139674258474657</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1338298546194693</v>
+        <v>0.1377365710522986</v>
       </c>
     </row>
     <row r="13">
@@ -1384,19 +1384,19 @@
         <v>64762</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>51352</v>
+        <v>50462</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>83674</v>
+        <v>82339</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1277204107525225</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1012743450426019</v>
+        <v>0.0995193842567986</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1650179942281519</v>
+        <v>0.1623852105726167</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>64</v>
@@ -1405,19 +1405,19 @@
         <v>49454</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>38999</v>
+        <v>38769</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>62737</v>
+        <v>62594</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1372404979415116</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1082265524621289</v>
+        <v>0.1075865475908353</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1740999429567197</v>
+        <v>0.1737024435186474</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>122</v>
@@ -1426,19 +1426,19 @@
         <v>114217</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>95428</v>
+        <v>94791</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>137262</v>
+        <v>136004</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1316753435238799</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1100150422880844</v>
+        <v>0.1092801028988568</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1582434837564932</v>
+        <v>0.1567925218349792</v>
       </c>
     </row>
     <row r="14">
@@ -1455,19 +1455,19 @@
         <v>125488</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>104574</v>
+        <v>102330</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>147625</v>
+        <v>149162</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.2474804599656583</v>
+        <v>0.2474804599656582</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2062352236931634</v>
+        <v>0.2018094567293824</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2911372708697574</v>
+        <v>0.2941684628448843</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>100</v>
@@ -1476,19 +1476,19 @@
         <v>76186</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>62836</v>
+        <v>62926</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>91807</v>
+        <v>90182</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2114236599117104</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1743746378645747</v>
+        <v>0.1746245284350162</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2547720980488761</v>
+        <v>0.2502625496788122</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>201</v>
@@ -1497,19 +1497,19 @@
         <v>201674</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>176699</v>
+        <v>178218</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>230286</v>
+        <v>230920</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.232501372344636</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2037082213588254</v>
+        <v>0.205459640533852</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2654861065979859</v>
+        <v>0.2662178028593721</v>
       </c>
     </row>
     <row r="15">
@@ -1526,19 +1526,19 @@
         <v>121147</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>100617</v>
+        <v>99283</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>144393</v>
+        <v>146425</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2389202747005188</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1984310481321119</v>
+        <v>0.1958000384721037</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2847637790631042</v>
+        <v>0.2887713020853008</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>106</v>
@@ -1547,19 +1547,19 @@
         <v>87346</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>73253</v>
+        <v>72256</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>102722</v>
+        <v>103361</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>0.2423938733591498</v>
+        <v>0.2423938733591499</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2032845753706978</v>
+        <v>0.2005162847138297</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2850636846386645</v>
+        <v>0.2868345345310011</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>201</v>
@@ -1568,19 +1568,19 @@
         <v>208494</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>183575</v>
+        <v>180370</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>238852</v>
+        <v>235641</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.2403633128678008</v>
+        <v>0.2403633128678007</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2116356392249635</v>
+        <v>0.2079409633652102</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2753623419581109</v>
+        <v>0.2716598471950228</v>
       </c>
     </row>
     <row r="16">
@@ -1597,19 +1597,19 @@
         <v>38941</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>26689</v>
+        <v>26016</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>56458</v>
+        <v>53406</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.07679661103560459</v>
+        <v>0.07679661103560458</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05263474639964315</v>
+        <v>0.05130721956908631</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.111342968996132</v>
+        <v>0.1053250975282851</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>56</v>
@@ -1618,19 +1618,19 @@
         <v>43946</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>33757</v>
+        <v>33372</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>55681</v>
+        <v>57301</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.121954565122678</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0936795360300548</v>
+        <v>0.09260966703190966</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1545196573451277</v>
+        <v>0.1590156764888129</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>88</v>
@@ -1639,19 +1639,19 @@
         <v>82887</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>67460</v>
+        <v>66182</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>102068</v>
+        <v>102749</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.09555659389720939</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07777141144322922</v>
+        <v>0.07629810640944158</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1176691765405008</v>
+        <v>0.1184549526097093</v>
       </c>
     </row>
     <row r="17">
@@ -1743,19 +1743,19 @@
         <v>211438</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>186496</v>
+        <v>186928</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>237790</v>
+        <v>238896</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3376484772772136</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2978190987188101</v>
+        <v>0.2985088750250078</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3797311083937253</v>
+        <v>0.3814980890150383</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>205</v>
@@ -1764,19 +1764,19 @@
         <v>152111</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>134823</v>
+        <v>134210</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>169622</v>
+        <v>171259</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.3118690416116164</v>
+        <v>0.3118690416116163</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2764229615467116</v>
+        <v>0.2751663766069186</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3477719397733002</v>
+        <v>0.3511274591416579</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>393</v>
@@ -1785,19 +1785,19 @@
         <v>363548</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>329164</v>
+        <v>330728</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>395333</v>
+        <v>395722</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3263609838572527</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2954939891802679</v>
+        <v>0.2968976547273485</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.354894355869129</v>
+        <v>0.3552440494720414</v>
       </c>
     </row>
     <row r="19">
@@ -1814,19 +1814,19 @@
         <v>128602</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>107282</v>
+        <v>108005</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>153128</v>
+        <v>151440</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2053668462167637</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1713204274902544</v>
+        <v>0.1724755990682127</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2445326610354449</v>
+        <v>0.2418373806956449</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>144</v>
@@ -1835,19 +1835,19 @@
         <v>100869</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>86608</v>
+        <v>86238</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>117010</v>
+        <v>115981</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2068090121678227</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1775695825390294</v>
+        <v>0.1768116893954943</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2399018820851233</v>
+        <v>0.2377932752106054</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>254</v>
@@ -1856,19 +1856,19 @@
         <v>229471</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>203062</v>
+        <v>203241</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>258396</v>
+        <v>255470</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2059982967610746</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1822912715641188</v>
+        <v>0.1824517866854213</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2319644268046477</v>
+        <v>0.2293381512839612</v>
       </c>
     </row>
     <row r="20">
@@ -1885,19 +1885,19 @@
         <v>83662</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>67764</v>
+        <v>66661</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>103594</v>
+        <v>101265</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1336020402416074</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.108213318075592</v>
+        <v>0.1064513969490994</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1654305286744995</v>
+        <v>0.1617114074610544</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>88</v>
@@ -1906,19 +1906,19 @@
         <v>60801</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>49926</v>
+        <v>50209</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>74535</v>
+        <v>78455</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1246593782196772</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1023627743600035</v>
+        <v>0.1029415463662463</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1528175953266173</v>
+        <v>0.1608532096163765</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>168</v>
@@ -1927,19 +1927,19 @@
         <v>144464</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>122631</v>
+        <v>123900</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>164743</v>
+        <v>169484</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1296865069444927</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1100872162274342</v>
+        <v>0.1112267500019312</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1478919112548703</v>
+        <v>0.1521478374647116</v>
       </c>
     </row>
     <row r="21">
@@ -1956,19 +1956,19 @@
         <v>117081</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>97839</v>
+        <v>95895</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>141082</v>
+        <v>141494</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1869690824506679</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1562412892644051</v>
+        <v>0.1531365217592723</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.225296706190404</v>
+        <v>0.2259540124465787</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>104</v>
@@ -1977,19 +1977,19 @@
         <v>75517</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>62437</v>
+        <v>62163</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>90232</v>
+        <v>91901</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1548306875051138</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1280135205446946</v>
+        <v>0.1274510012073718</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1850001908101137</v>
+        <v>0.1884224663723164</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>208</v>
@@ -1998,19 +1998,19 @@
         <v>192598</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>167219</v>
+        <v>168795</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>221803</v>
+        <v>219538</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1728973267232858</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1501141163515805</v>
+        <v>0.1515290850027896</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1991152372327241</v>
+        <v>0.1970810951686602</v>
       </c>
     </row>
     <row r="22">
@@ -2027,19 +2027,19 @@
         <v>60858</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>45866</v>
+        <v>45794</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>80509</v>
+        <v>81473</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.0971853380614433</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.07324382852233315</v>
+        <v>0.07312910293500086</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1285665289984502</v>
+        <v>0.1301057777058246</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>88</v>
@@ -2048,19 +2048,19 @@
         <v>68969</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>56470</v>
+        <v>55703</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>83478</v>
+        <v>83514</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1414055048945451</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.11577881694839</v>
+        <v>0.1142056975292068</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1711526204637134</v>
+        <v>0.171225996526286</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>141</v>
@@ -2069,19 +2069,19 @@
         <v>129827</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>110977</v>
+        <v>110311</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>154056</v>
+        <v>152695</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.116547082384819</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.09962557295895852</v>
+        <v>0.09902775510362341</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1382975562117736</v>
+        <v>0.1370762412090426</v>
       </c>
     </row>
     <row r="23">
@@ -2098,19 +2098,19 @@
         <v>24565</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>16600</v>
+        <v>16163</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>38263</v>
+        <v>37878</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.03922821575230422</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.0265085907241042</v>
+        <v>0.02581175733647176</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.06110212766652499</v>
+        <v>0.06048741253103091</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>41</v>
@@ -2119,19 +2119,19 @@
         <v>29472</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>21811</v>
+        <v>21507</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>39850</v>
+        <v>38145</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.06042637560122487</v>
+        <v>0.06042637560122489</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.04471777403487351</v>
+        <v>0.04409471331440698</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.08170414046019872</v>
+        <v>0.0782067154049491</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>64</v>
@@ -2140,19 +2140,19 @@
         <v>54037</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>41942</v>
+        <v>42298</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>71086</v>
+        <v>69907</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.04850980332907504</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.03765204687301772</v>
+        <v>0.03797135211124326</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.06381498706562079</v>
+        <v>0.06275618589152034</v>
       </c>
     </row>
     <row r="24">
@@ -2244,19 +2244,19 @@
         <v>256417</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>231238</v>
+        <v>231499</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>283081</v>
+        <v>286258</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4334903144645662</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3909228037949848</v>
+        <v>0.3913647191531626</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4785664251972469</v>
+        <v>0.4839374164278299</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>204</v>
@@ -2265,19 +2265,19 @@
         <v>156161</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>139297</v>
+        <v>137402</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>175635</v>
+        <v>175641</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3364400956413727</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3001091758498589</v>
+        <v>0.2960258625758166</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3783954556705871</v>
+        <v>0.3784084658254056</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>423</v>
@@ -2286,19 +2286,19 @@
         <v>412578</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>380138</v>
+        <v>378973</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>443259</v>
+        <v>444522</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3908195034125699</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3600900306220319</v>
+        <v>0.3589865687917217</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4198825074465474</v>
+        <v>0.4210784901975049</v>
       </c>
     </row>
     <row r="26">
@@ -2315,19 +2315,19 @@
         <v>154594</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>130978</v>
+        <v>133295</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>178962</v>
+        <v>176668</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2613518956602355</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2214264393847993</v>
+        <v>0.2253433601971489</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3025465381392844</v>
+        <v>0.2986681029668283</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>193</v>
@@ -2336,19 +2336,19 @@
         <v>120033</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>104333</v>
+        <v>104977</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>137227</v>
+        <v>137677</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2586038656484934</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2247801991652963</v>
+        <v>0.2261673970066742</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.295647766565074</v>
+        <v>0.2966183704414707</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>344</v>
@@ -2357,19 +2357,19 @@
         <v>274627</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>247618</v>
+        <v>248585</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>302579</v>
+        <v>306606</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2601436483134686</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2345585721275569</v>
+        <v>0.2354746300274252</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2866212599742026</v>
+        <v>0.2904355170352337</v>
       </c>
     </row>
     <row r="27">
@@ -2386,19 +2386,19 @@
         <v>47663</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>36688</v>
+        <v>35104</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>63782</v>
+        <v>64467</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.08057754132681648</v>
+        <v>0.08057754132681647</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.0620228291265801</v>
+        <v>0.05934580473525024</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1078282530601614</v>
+        <v>0.1089857956382879</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>68</v>
@@ -2407,19 +2407,19 @@
         <v>48125</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>36816</v>
+        <v>38187</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>61440</v>
+        <v>61535</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.1036824416136647</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.07931808653172176</v>
+        <v>0.08227087445738394</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.13237006079792</v>
+        <v>0.1325744738765786</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>115</v>
@@ -2428,19 +2428,19 @@
         <v>95788</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>79110</v>
+        <v>78258</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>116758</v>
+        <v>113658</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.09073624932840729</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.07493767782076517</v>
+        <v>0.07413109945605051</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.1106007825263222</v>
+        <v>0.1076640946563332</v>
       </c>
     </row>
     <row r="28">
@@ -2457,19 +2457,19 @@
         <v>48855</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>35502</v>
+        <v>34785</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>65877</v>
+        <v>65345</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.08259189734788694</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.06001801670588147</v>
+        <v>0.05880652169540947</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.11136866270198</v>
+        <v>0.1104702259180221</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>74</v>
@@ -2478,19 +2478,19 @@
         <v>57863</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>45620</v>
+        <v>45892</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>70969</v>
+        <v>72289</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1246618433081408</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.09828649702729286</v>
+        <v>0.09887146139726702</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.152898122917557</v>
+        <v>0.1557423199327865</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>117</v>
@@ -2499,19 +2499,19 @@
         <v>106717</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>88885</v>
+        <v>88170</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>127184</v>
+        <v>126648</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.101089111849877</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.0841973239119518</v>
+        <v>0.08351994604163063</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1204763234671666</v>
+        <v>0.1199691475923707</v>
       </c>
     </row>
     <row r="29">
@@ -2528,19 +2528,19 @@
         <v>56310</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>40588</v>
+        <v>40001</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>77081</v>
+        <v>78446</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.09519628084522737</v>
+        <v>0.09519628084522735</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.06861583559094837</v>
+        <v>0.06762469599265869</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1303098797190443</v>
+        <v>0.1326173541092268</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>58</v>
@@ -2549,19 +2549,19 @@
         <v>45077</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>34191</v>
+        <v>34867</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>55999</v>
+        <v>57402</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.09711663128770409</v>
+        <v>0.09711663128770411</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.07366199822364811</v>
+        <v>0.07512005643037703</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1206479151157466</v>
+        <v>0.1236698922530479</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>99</v>
@@ -2570,19 +2570,19 @@
         <v>101388</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>81627</v>
+        <v>83350</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>124341</v>
+        <v>126004</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.09604061599334099</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.07732188982869301</v>
+        <v>0.07895396499155319</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1177834153361076</v>
+        <v>0.1193587183974958</v>
       </c>
     </row>
     <row r="30">
@@ -2599,19 +2599,19 @@
         <v>27678</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>17250</v>
+        <v>17386</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>41929</v>
+        <v>41704</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.0467920703552676</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.02916287698956078</v>
+        <v>0.0293914143294135</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.07088309617512081</v>
+        <v>0.07050300562659485</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>49</v>
@@ -2620,19 +2620,19 @@
         <v>36898</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>27545</v>
+        <v>26829</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>49178</v>
+        <v>46807</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.07949512250062421</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.05934360585513666</v>
+        <v>0.05780205400621146</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1059506034459851</v>
+        <v>0.1008431595290251</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>70</v>
@@ -2641,19 +2641,19 @@
         <v>64577</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>50043</v>
+        <v>49941</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>81807</v>
+        <v>80409</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.06117087110233606</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.04740340412457547</v>
+        <v>0.04730719553206547</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.07749299732339228</v>
+        <v>0.07616840731312972</v>
       </c>
     </row>
     <row r="31">
@@ -2745,19 +2745,19 @@
         <v>600314</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>554987</v>
+        <v>554014</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>645662</v>
+        <v>645150</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.315898118560474</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.2920462605847319</v>
+        <v>0.2915340778272227</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.339760919084137</v>
+        <v>0.3394917840768905</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>526</v>
@@ -2766,19 +2766,19 @@
         <v>401909</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>369339</v>
+        <v>371107</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>433497</v>
+        <v>433395</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.2708753820363503</v>
+        <v>0.2708753820363502</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.248923927090228</v>
+        <v>0.2501155216900077</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2921649713013552</v>
+        <v>0.2920961530808467</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1035</v>
@@ -2787,19 +2787,19 @@
         <v>1002224</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>946052</v>
+        <v>944284</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1061942</v>
+        <v>1057924</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2961580210861469</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2795593342490735</v>
+        <v>0.279036733395222</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.3138048938659238</v>
+        <v>0.3126174254785838</v>
       </c>
     </row>
     <row r="33">
@@ -2816,19 +2816,19 @@
         <v>360572</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>323959</v>
+        <v>323755</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>401370</v>
+        <v>401382</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.1897404895350978</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.1704740064936658</v>
+        <v>0.1703668587234761</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.2112094358124951</v>
+        <v>0.2112157263806318</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>413</v>
@@ -2837,19 +2837,19 @@
         <v>277572</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>250061</v>
+        <v>251278</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>303577</v>
+        <v>302665</v>
       </c>
       <c r="N33" s="6" t="n">
-        <v>0.1870753724986742</v>
+        <v>0.1870753724986741</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.1685342037490918</v>
+        <v>0.1693541161373422</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.2046023798567141</v>
+        <v>0.2039875685100702</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>742</v>
@@ -2858,19 +2858,19 @@
         <v>638143</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>591106</v>
+        <v>591393</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>685588</v>
+        <v>688697</v>
       </c>
       <c r="U33" s="6" t="n">
-        <v>0.1885719761540574</v>
+        <v>0.1885719761540575</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.174672438886972</v>
+        <v>0.1747571775076693</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.2025919125861851</v>
+        <v>0.2035104786369421</v>
       </c>
     </row>
     <row r="34">
@@ -2887,19 +2887,19 @@
         <v>222443</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>192962</v>
+        <v>196040</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>256109</v>
+        <v>254553</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1170540389754485</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1015409120275383</v>
+        <v>0.1031602649890887</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1347699230162659</v>
+        <v>0.1339514147641727</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>240</v>
@@ -2908,19 +2908,19 @@
         <v>174344</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>154579</v>
+        <v>153739</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>198243</v>
+        <v>197902</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1175026330280732</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1041819398458331</v>
+        <v>0.1036157628528626</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1336102433365195</v>
+        <v>0.1333804384080877</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>448</v>
@@ -2929,19 +2929,19 @@
         <v>396786</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>363449</v>
+        <v>362008</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>434120</v>
+        <v>435660</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1172507238286775</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1073996370640877</v>
+        <v>0.1069736701713221</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1282829940537681</v>
+        <v>0.1287378337868498</v>
       </c>
     </row>
     <row r="35">
@@ -2958,19 +2958,19 @@
         <v>333824</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>294685</v>
+        <v>300210</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>371630</v>
+        <v>370766</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1756655116002713</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.155069438723715</v>
+        <v>0.1579766831627058</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1955597934603396</v>
+        <v>0.195104823897933</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>317</v>
@@ -2979,19 +2979,19 @@
         <v>241817</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>218120</v>
+        <v>215467</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>269735</v>
+        <v>268254</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1629779470899955</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1470065964010064</v>
+        <v>0.1452187099701617</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1817937944049386</v>
+        <v>0.1807956809008427</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>600</v>
@@ -3000,19 +3000,19 @@
         <v>575642</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>527957</v>
+        <v>529337</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>621864</v>
+        <v>620070</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1701026831389124</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1560116779249191</v>
+        <v>0.1564194740919453</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1837613518873087</v>
+        <v>0.1832312742037757</v>
       </c>
     </row>
     <row r="36">
@@ -3029,19 +3029,19 @@
         <v>264940</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>231307</v>
+        <v>231879</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>303336</v>
+        <v>304507</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1394170129601363</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1217187112699739</v>
+        <v>0.1220197282458121</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1596218563698024</v>
+        <v>0.1602381289366764</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>307</v>
@@ -3050,19 +3050,19 @@
         <v>247962</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>224506</v>
+        <v>219299</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>275321</v>
+        <v>275087</v>
       </c>
       <c r="N36" s="6" t="n">
-        <v>0.1671190510990741</v>
+        <v>0.167119051099074</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1513106081455449</v>
+        <v>0.1478013024619133</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1855582481473501</v>
+        <v>0.1854005793909075</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>519</v>
@@ -3071,19 +3071,19 @@
         <v>512902</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>471140</v>
+        <v>473267</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>561094</v>
+        <v>563356</v>
       </c>
       <c r="U36" s="6" t="n">
-        <v>0.1515628969138395</v>
+        <v>0.1515628969138394</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1392223731410419</v>
+        <v>0.1398508490978203</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1658037514427605</v>
+        <v>0.1664721929014905</v>
       </c>
     </row>
     <row r="37">
@@ -3100,19 +3100,19 @@
         <v>118248</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>97133</v>
+        <v>97563</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>145567</v>
+        <v>146090</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.06222482836857204</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.05111334760491797</v>
+        <v>0.05133952262113745</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.07660032659831079</v>
+        <v>0.07687577426468711</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>184</v>
@@ -3121,19 +3121,19 @@
         <v>140139</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>121479</v>
+        <v>119509</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>159757</v>
+        <v>163391</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.09444961424783282</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.08187334580102069</v>
+        <v>0.08054553665500862</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1076716848138959</v>
+        <v>0.1101211515253126</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>282</v>
@@ -3142,19 +3142,19 @@
         <v>258387</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>226856</v>
+        <v>227903</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>290200</v>
+        <v>292477</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.07635369887836625</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.06703622398724338</v>
+        <v>0.06734540306186969</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.08575429455318621</v>
+        <v>0.08642736198731218</v>
       </c>
     </row>
     <row r="38">
